--- a/resultados/baseARIMA.xlsx
+++ b/resultados/baseARIMA.xlsx
@@ -1138,7 +1138,7 @@
         <v>43891</v>
       </c>
       <c r="C94">
-        <v>0.04042426976323036</v>
+        <v>0.04042426530047671</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1146,7 +1146,7 @@
         <v>43983</v>
       </c>
       <c r="C95">
-        <v>0.04473843213767508</v>
+        <v>0.04473842645413049</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1154,7 +1154,7 @@
         <v>44075</v>
       </c>
       <c r="C96">
-        <v>0.04933397035121832</v>
+        <v>0.04933396398118797</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/baseARIMA.xlsx
+++ b/resultados/baseARIMA.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,330 +399,330 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>35490</v>
+        <v>37987</v>
       </c>
       <c r="B2">
-        <v>0.04666751530768409</v>
+        <v>0.1136206818218606</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>35582</v>
+        <v>38018</v>
       </c>
       <c r="B3">
-        <v>0.06266888710486751</v>
+        <v>0.1334915291966545</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>35674</v>
+        <v>38047</v>
       </c>
       <c r="B4">
-        <v>0.07178905889850662</v>
+        <v>0.1356157018931834</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>35765</v>
+        <v>38078</v>
       </c>
       <c r="B5">
-        <v>0.075823074193754</v>
+        <v>0.1856142049357452</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>35855</v>
+        <v>38108</v>
       </c>
       <c r="B6">
-        <v>0.09091726685850632</v>
+        <v>0.1608590435359583</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>35947</v>
+        <v>38139</v>
       </c>
       <c r="B7">
-        <v>0.05864221444503781</v>
+        <v>0.2018541620313257</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>36039</v>
+        <v>38169</v>
       </c>
       <c r="B8">
-        <v>0.07250615424676665</v>
+        <v>0.05715365596816424</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>36130</v>
+        <v>38200</v>
       </c>
       <c r="B9">
-        <v>0.07262998805204779</v>
+        <v>0.09618685234830093</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>36220</v>
+        <v>38231</v>
       </c>
       <c r="B10">
-        <v>0.05960362107472528</v>
+        <v>0.1377846988038036</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>36312</v>
+        <v>38261</v>
       </c>
       <c r="B11">
-        <v>0.05526504407521871</v>
+        <v>0.09340555641492365</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>36404</v>
+        <v>38292</v>
       </c>
       <c r="B12">
-        <v>0.04229726637113118</v>
+        <v>0.0422968125351304</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>36495</v>
+        <v>38322</v>
       </c>
       <c r="B13">
-        <v>0.00302704664309017</v>
+        <v>0.01201197588969927</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>36586</v>
+        <v>38353</v>
       </c>
       <c r="B14">
-        <v>0.007980819556266505</v>
+        <v>0.04069170004017031</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>36678</v>
+        <v>38384</v>
       </c>
       <c r="B15">
-        <v>0.02571455752321872</v>
+        <v>0.02291098377119782</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>36770</v>
+        <v>38412</v>
       </c>
       <c r="B16">
-        <v>0.02737222132385275</v>
+        <v>0.06503941045288797</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>36861</v>
+        <v>38443</v>
       </c>
       <c r="B17">
-        <v>0.046556305771843</v>
+        <v>0.06740853035597016</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>36951</v>
+        <v>38473</v>
       </c>
       <c r="B18">
-        <v>0.01053747905527724</v>
+        <v>0.2516400659293105</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>37043</v>
+        <v>38504</v>
       </c>
       <c r="B19">
-        <v>0.0243330203067802</v>
+        <v>0.1922876786631107</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>37135</v>
+        <v>38534</v>
       </c>
       <c r="B20">
-        <v>-0.00394038607959013</v>
+        <v>0.2186753321509309</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>37226</v>
+        <v>38565</v>
       </c>
       <c r="B21">
-        <v>-0.006852905330835157</v>
+        <v>0.2570207027066262</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>37316</v>
+        <v>38596</v>
       </c>
       <c r="B22">
-        <v>0.02100532741278927</v>
+        <v>0.1769911756226432</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>37408</v>
+        <v>38626</v>
       </c>
       <c r="B23">
-        <v>0.01697295787232922</v>
+        <v>0.1609423082254029</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>37500</v>
+        <v>38657</v>
       </c>
       <c r="B24">
-        <v>0.01525981729553516</v>
+        <v>0.1986208816506265</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>37591</v>
+        <v>38687</v>
       </c>
       <c r="B25">
-        <v>0.03550410954923078</v>
+        <v>0.2321469031436305</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>37681</v>
+        <v>38718</v>
       </c>
       <c r="B26">
-        <v>0.05042758610235376</v>
+        <v>0.2133131064745519</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>37773</v>
+        <v>38749</v>
       </c>
       <c r="B27">
-        <v>0.001628273188549301</v>
+        <v>0.2378708834024967</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>37865</v>
+        <v>38777</v>
       </c>
       <c r="B28">
-        <v>0.03911957524952436</v>
+        <v>0.2385415247332292</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>37956</v>
+        <v>38808</v>
       </c>
       <c r="B29">
-        <v>0.07605005283683375</v>
+        <v>0.1920905528951302</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>38047</v>
+        <v>38838</v>
       </c>
       <c r="B30">
-        <v>0.06429164903278561</v>
+        <v>0.1503377686567664</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>38139</v>
+        <v>38869</v>
       </c>
       <c r="B31">
-        <v>0.09602635442885532</v>
+        <v>0.1993754369968135</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>38231</v>
+        <v>38899</v>
       </c>
       <c r="B32">
-        <v>0.09192729066242022</v>
+        <v>0.241716878048875</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>38322</v>
+        <v>38930</v>
       </c>
       <c r="B33">
-        <v>0.05096858277582372</v>
+        <v>0.190306494864432</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>38412</v>
+        <v>38961</v>
       </c>
       <c r="B34">
-        <v>0.07675442659763654</v>
+        <v>0.2895069766305332</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>38504</v>
+        <v>38991</v>
       </c>
       <c r="B35">
-        <v>0.07732391256059823</v>
+        <v>0.2560015824473847</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>38596</v>
+        <v>39022</v>
       </c>
       <c r="B36">
-        <v>0.0732136880092753</v>
+        <v>0.2096740945377349</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>38687</v>
+        <v>39052</v>
       </c>
       <c r="B37">
-        <v>0.06122744117220935</v>
+        <v>0.2384498106066433</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>38777</v>
+        <v>39083</v>
       </c>
       <c r="B38">
-        <v>0.07608972889382093</v>
+        <v>0.2030743405588959</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>38869</v>
+        <v>39114</v>
       </c>
       <c r="B39">
-        <v>0.07649088321752751</v>
+        <v>0.1593755849695666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>38961</v>
+        <v>39142</v>
       </c>
       <c r="B40">
-        <v>0.09306451647030323</v>
+        <v>0.1334294614723199</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>39052</v>
+        <v>39173</v>
       </c>
       <c r="B41">
-        <v>0.09447877499761792</v>
+        <v>0.1336545978146368</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>39142</v>
+        <v>39203</v>
       </c>
       <c r="B42">
-        <v>0.1277279351839498</v>
+        <v>0.1173413631572222</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,431 +730,1263 @@
         <v>39234</v>
       </c>
       <c r="B43">
-        <v>0.1329433650920031</v>
+        <v>0.03248278966807705</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>39326</v>
+        <v>39264</v>
       </c>
       <c r="B44">
-        <v>0.1543767827907712</v>
+        <v>0.1536473860245817</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>39417</v>
+        <v>39295</v>
       </c>
       <c r="B45">
-        <v>0.1804262041212188</v>
+        <v>0.09932733913720493</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>39508</v>
+        <v>39326</v>
       </c>
       <c r="B46">
-        <v>0.1236656291559666</v>
+        <v>0.1320767453155089</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>39600</v>
+        <v>39356</v>
       </c>
       <c r="B47">
-        <v>0.1356947311687779</v>
+        <v>0.1085234970577611</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>39692</v>
+        <v>39387</v>
       </c>
       <c r="B48">
-        <v>0.0938783580668785</v>
+        <v>0.0868927522948173</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>39783</v>
+        <v>39417</v>
       </c>
       <c r="B49">
-        <v>0.04814361336116346</v>
+        <v>0.05798466317115425</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>39873</v>
+        <v>39448</v>
       </c>
       <c r="B50">
-        <v>0.03976102254012326</v>
+        <v>0.08443823887034663</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>39965</v>
+        <v>39479</v>
       </c>
       <c r="B51">
-        <v>0.007090102587534508</v>
+        <v>0.1050541782801195</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>40057</v>
+        <v>39508</v>
       </c>
       <c r="B52">
-        <v>0.001393861203648372</v>
+        <v>0.05343445453397155</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>40148</v>
+        <v>39539</v>
       </c>
       <c r="B53">
-        <v>0.001599346457928696</v>
+        <v>0.1152416744600002</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>40238</v>
+        <v>39569</v>
       </c>
       <c r="B54">
-        <v>0.04781128927669065</v>
+        <v>0.1625597173706885</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>40330</v>
+        <v>39600</v>
       </c>
       <c r="B55">
-        <v>0.04459862479549637</v>
+        <v>0.2062071565252341</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>40422</v>
+        <v>39630</v>
       </c>
       <c r="B56">
-        <v>0.03741929623264539</v>
+        <v>0.1079664479639453</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>40513</v>
+        <v>39661</v>
       </c>
       <c r="B57">
-        <v>0.1005373107825578</v>
+        <v>0.1703606198915117</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>40603</v>
+        <v>39692</v>
       </c>
       <c r="B58">
-        <v>0.1040250325821539</v>
+        <v>0.1042307502716484</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>40695</v>
+        <v>39722</v>
       </c>
       <c r="B59">
-        <v>0.1172471241764603</v>
+        <v>0.1213270298030802</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>40787</v>
+        <v>39753</v>
       </c>
       <c r="B60">
-        <v>0.1303143748973115</v>
+        <v>0.1241323876329576</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>40878</v>
+        <v>39783</v>
       </c>
       <c r="B61">
-        <v>0.1053750901557722</v>
+        <v>0.1468852994809497</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>40969</v>
+        <v>39814</v>
       </c>
       <c r="B62">
-        <v>0.117553105460136</v>
+        <v>0.118945691630536</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>41061</v>
+        <v>39845</v>
       </c>
       <c r="B63">
-        <v>0.1008980431204711</v>
+        <v>0.09535599617104484</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>41153</v>
+        <v>39873</v>
       </c>
       <c r="B64">
-        <v>0.09258948520281107</v>
+        <v>0.1348993148586739</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>41244</v>
+        <v>39904</v>
       </c>
       <c r="B65">
-        <v>0.08147832554076229</v>
+        <v>0.1012610557878912</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>41334</v>
+        <v>39934</v>
       </c>
       <c r="B66">
-        <v>0.06921214284846466</v>
+        <v>0.0345769367117652</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>41426</v>
+        <v>39965</v>
       </c>
       <c r="B67">
-        <v>0.07296693385208042</v>
+        <v>0.1240098968167989</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>41518</v>
+        <v>39995</v>
       </c>
       <c r="B68">
-        <v>0.08214722596540702</v>
+        <v>0.02549452627152271</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>41609</v>
+        <v>40026</v>
       </c>
       <c r="B69">
-        <v>0.05569762413024004</v>
+        <v>0.03772419250112335</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>41699</v>
+        <v>40057</v>
       </c>
       <c r="B70">
-        <v>0.04432014220684311</v>
+        <v>0.0563613779312524</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>41791</v>
+        <v>40087</v>
       </c>
       <c r="B71">
-        <v>0.04746086483304723</v>
+        <v>0.1060884788695369</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>41883</v>
+        <v>40118</v>
       </c>
       <c r="B72">
-        <v>0.05095138933717647</v>
+        <v>0.09605963698383313</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>41974</v>
+        <v>40148</v>
       </c>
       <c r="B73">
-        <v>0.06108673078076698</v>
+        <v>0.02970143614155019</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>42064</v>
+        <v>40179</v>
       </c>
       <c r="B74">
-        <v>0.06010969731904825</v>
+        <v>0.02623218796274118</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>42156</v>
+        <v>40210</v>
       </c>
       <c r="B75">
-        <v>0.05792536059548659</v>
+        <v>0.007791440166905694</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>42248</v>
+        <v>40238</v>
       </c>
       <c r="B76">
-        <v>0.05649447950751441</v>
+        <v>0.05809028184583132</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>42339</v>
+        <v>40269</v>
       </c>
       <c r="B77">
-        <v>0.05395690488061589</v>
+        <v>-0.002717680900403807</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>42430</v>
+        <v>40299</v>
       </c>
       <c r="B78">
-        <v>0.04941909186367677</v>
+        <v>-0.02207208420081574</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>42522</v>
+        <v>40330</v>
       </c>
       <c r="B79">
-        <v>0.0538668649754297</v>
+        <v>-0.05582746322193566</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
+        <v>40360</v>
+      </c>
+      <c r="B80">
+        <v>0.048382981710694</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
+        <v>40391</v>
+      </c>
+      <c r="B81">
+        <v>0.03782719217709429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
+        <v>40422</v>
+      </c>
+      <c r="B82">
+        <v>0.04001533463489793</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
+        <v>40452</v>
+      </c>
+      <c r="B83">
+        <v>0.06879166957083949</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>40483</v>
+      </c>
+      <c r="B84">
+        <v>0.07616007490585264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
+        <v>40513</v>
+      </c>
+      <c r="B85">
+        <v>0.07691849484023949</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
+        <v>40544</v>
+      </c>
+      <c r="B86">
+        <v>0.2541355458615921</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
+        <v>40575</v>
+      </c>
+      <c r="B87">
+        <v>0.3424307838534171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
+        <v>40603</v>
+      </c>
+      <c r="B88">
+        <v>0.2159507784071124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
+        <v>40634</v>
+      </c>
+      <c r="B89">
+        <v>0.3072895455210605</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
+        <v>40664</v>
+      </c>
+      <c r="B90">
+        <v>0.1991088690682474</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
+        <v>40695</v>
+      </c>
+      <c r="B91">
+        <v>0.1269459088543965</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>40725</v>
+      </c>
+      <c r="B92">
+        <v>0.1221120047751107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>40756</v>
+      </c>
+      <c r="B93">
+        <v>0.1021333155555668</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>40787</v>
+      </c>
+      <c r="B94">
+        <v>0.1581645689788693</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
+        <v>40817</v>
+      </c>
+      <c r="B95">
+        <v>0.08439293269402959</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
+        <v>40848</v>
+      </c>
+      <c r="B96">
+        <v>0.1184065337413802</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
+        <v>40878</v>
+      </c>
+      <c r="B97">
+        <v>0.173290421666376</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
+        <v>40909</v>
+      </c>
+      <c r="B98">
+        <v>0.04218692993143258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
+        <v>40940</v>
+      </c>
+      <c r="B99">
+        <v>0.00106947723547135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
+        <v>40969</v>
+      </c>
+      <c r="B100">
+        <v>-0.01118397676748928</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
+        <v>41000</v>
+      </c>
+      <c r="B101">
+        <v>-0.01409441642435239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
+        <v>41030</v>
+      </c>
+      <c r="B102">
+        <v>0.04817918191607906</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
+        <v>41061</v>
+      </c>
+      <c r="B103">
+        <v>0.1042464781452266</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
+        <v>41091</v>
+      </c>
+      <c r="B104">
+        <v>0.1233309894568004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
+        <v>41122</v>
+      </c>
+      <c r="B105">
+        <v>0.1283524615843274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
+        <v>41153</v>
+      </c>
+      <c r="B106">
+        <v>0.07764326187780246</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B107">
+        <v>0.08191266383765461</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
+        <v>41214</v>
+      </c>
+      <c r="B108">
+        <v>0.02977801419348092</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
+        <v>41244</v>
+      </c>
+      <c r="B109">
+        <v>0.004051157998484767</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
+        <v>41275</v>
+      </c>
+      <c r="B110">
+        <v>-0.02341860921992789</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
+        <v>41306</v>
+      </c>
+      <c r="B111">
+        <v>-0.02766735066393333</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
+        <v>41334</v>
+      </c>
+      <c r="B112">
+        <v>0.01576991672790462</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B113">
+        <v>0.009785969717810872</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
+        <v>41395</v>
+      </c>
+      <c r="B114">
+        <v>-0.005672154638654892</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B115">
+        <v>-0.04841441285821768</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B116">
+        <v>-0.06820547650530417</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
+        <v>41487</v>
+      </c>
+      <c r="B117">
+        <v>-0.001309952180323593</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
+        <v>41518</v>
+      </c>
+      <c r="B118">
+        <v>0.0152191648506792</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B119">
+        <v>-0.01732861544575859</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B120">
+        <v>0.04820162141721807</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B121">
+        <v>0.05612552664804116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
+        <v>41640</v>
+      </c>
+      <c r="B122">
+        <v>0.04349582466909796</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B123">
+        <v>0.03816614013815212</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
+        <v>41699</v>
+      </c>
+      <c r="B124">
+        <v>0.05991858810922479</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B125">
+        <v>0.03641829065068003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B126">
+        <v>0.03639429170626984</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B127">
+        <v>0.02295151386346639</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
+        <v>41821</v>
+      </c>
+      <c r="B128">
+        <v>0.03823081904020964</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B129">
+        <v>-0.03042182781390079</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B130">
+        <v>0.06569700378667775</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B131">
+        <v>0.05715461513942843</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B132">
+        <v>0.00553178511838115</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B133">
+        <v>-0.001968089505086756</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B134">
+        <v>0.0007573204533084521</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B135">
+        <v>0.01746722020321889</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B136">
+        <v>0.04271938768532046</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B137">
+        <v>0.06569976746441597</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B138">
+        <v>0.06166724946406776</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
+        <v>42156</v>
+      </c>
+      <c r="B139">
+        <v>0.1044993690084577</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B140">
+        <v>0.1081372699309535</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
+        <v>42217</v>
+      </c>
+      <c r="B141">
+        <v>0.1124978948366768</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
+        <v>42248</v>
+      </c>
+      <c r="B142">
+        <v>-0.02953106726594501</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B143">
+        <v>-0.008047155669150929</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B144">
+        <v>0.003243998773661882</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B145">
+        <v>-0.03151869761865966</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B146">
+        <v>0.008047663826464602</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B147">
+        <v>0.01648678790281166</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B148">
+        <v>-0.03344853476217668</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B149">
+        <v>-0.07309355038799492</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B150">
+        <v>-0.09584871638223558</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
+        <v>42522</v>
+      </c>
+      <c r="B151">
+        <v>-0.1021475894007081</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
+        <v>42552</v>
+      </c>
+      <c r="B152">
+        <v>-0.1954956163952098</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
+        <v>42583</v>
+      </c>
+      <c r="B153">
+        <v>-0.2711810789683473</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
         <v>42614</v>
       </c>
-      <c r="B80">
-        <v>0.04409611702756022</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2">
+      <c r="B154">
+        <v>-0.2357691178908651</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
+        <v>42644</v>
+      </c>
+      <c r="B155">
+        <v>-0.2674340269162223</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
+        <v>42675</v>
+      </c>
+      <c r="B156">
+        <v>-0.253611363748245</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
         <v>42705</v>
       </c>
-      <c r="B81">
-        <v>0.05420146420809835</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2">
+      <c r="B157">
+        <v>-0.2130581079166135</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B158">
+        <v>-0.2081747840275048</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
+        <v>42767</v>
+      </c>
+      <c r="B159">
+        <v>-0.2471857550357361</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
         <v>42795</v>
       </c>
-      <c r="B82">
-        <v>0.06454295974809487</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2">
+      <c r="B160">
+        <v>-0.2311203712033996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2">
+        <v>42826</v>
+      </c>
+      <c r="B161">
+        <v>-0.2297748190923762</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2">
+        <v>42856</v>
+      </c>
+      <c r="B162">
+        <v>-0.2867808797428608</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2">
         <v>42887</v>
       </c>
-      <c r="B83">
-        <v>0.05494461601894507</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2">
+      <c r="B163">
+        <v>-0.2850716158531214</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2">
+        <v>42917</v>
+      </c>
+      <c r="B164">
+        <v>-0.1660795159103782</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B165">
+        <v>-0.1035931276334897</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2">
         <v>42979</v>
       </c>
-      <c r="B84">
-        <v>0.05682960368247247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2">
+      <c r="B166">
+        <v>-0.1248173747002291</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2">
+        <v>43009</v>
+      </c>
+      <c r="B167">
+        <v>-0.04329953644449724</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B168">
+        <v>-0.1059433186762009</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2">
         <v>43070</v>
       </c>
-      <c r="B85">
-        <v>0.05033939684049682</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2">
+      <c r="B169">
+        <v>-0.1000423498867465</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B170">
+        <v>-0.143961841047068</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B171">
+        <v>-0.1189862886632443</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2">
         <v>43160</v>
       </c>
-      <c r="B86">
-        <v>0.04180750896189589</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2">
+      <c r="B172">
+        <v>-0.08315205646602031</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B173">
+        <v>-0.03622990909484447</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B174">
+        <v>0.1227568412799935</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2">
         <v>43252</v>
       </c>
-      <c r="B87">
-        <v>0.03277373749879042</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2">
+      <c r="B175">
+        <v>0.0191937542263807</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2">
+        <v>43282</v>
+      </c>
+      <c r="B176">
+        <v>-0.09558115878060935</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B177">
+        <v>-0.06525645621059595</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2">
         <v>43344</v>
       </c>
-      <c r="B88">
-        <v>0.03489997729615912</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2">
+      <c r="B178">
+        <v>-0.06402797941723526</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B179">
+        <v>-0.1209137219782166</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B180">
+        <v>-0.09014027249397039</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2">
         <v>43435</v>
       </c>
-      <c r="B89">
-        <v>0.04155114649208591</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2">
+      <c r="B181">
+        <v>-0.1091477249274626</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2">
+        <v>43466</v>
+      </c>
+      <c r="B182">
+        <v>0.004795266436046886</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B183">
+        <v>0.004367032437120333</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2">
         <v>43525</v>
       </c>
-      <c r="B90">
-        <v>0.0320333531525181</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2">
+      <c r="B184">
+        <v>-0.04368224678819488</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B185">
+        <v>-0.0746191106450782</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B186">
+        <v>-0.1170438338270503</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2">
         <v>43617</v>
       </c>
-      <c r="B91">
-        <v>0.03077139582830402</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2">
+      <c r="B187">
+        <v>-0.0500772454027979</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B188">
+        <v>-0.05051951262915921</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B189">
+        <v>0.05777288352383469</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2">
         <v>43709</v>
       </c>
-      <c r="B92">
-        <v>0.03360934863362752</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2">
+      <c r="B190">
+        <v>-0.02596090391482964</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B191">
+        <v>0.06996207847911817</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B192">
+        <v>0.1304071436224796</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
         <v>43800</v>
       </c>
-      <c r="B93">
-        <v>0.03762658940429842</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="2">
+      <c r="B193">
+        <v>0.07587098311216534</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B194">
+        <v>-0.02808664818593443</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B195">
+        <v>-0.02484941170324262</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
         <v>43891</v>
       </c>
-      <c r="C94">
-        <v>0.04042426530047671</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2">
+      <c r="B196">
+        <v>-0.0009981371329595978</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B197">
+        <v>-0.09649546686691868</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C198">
+        <v>-0.06886832804348474</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
         <v>43983</v>
       </c>
-      <c r="C95">
-        <v>0.04473842645413049</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2">
-        <v>44075</v>
-      </c>
-      <c r="C96">
-        <v>0.04933396398118797</v>
+      <c r="C199">
+        <v>-0.06103191647426991</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C200">
+        <v>-0.05374683180013291</v>
       </c>
     </row>
   </sheetData>
